--- a/Laporan/2024/Laporan NG Incoming Line.xlsx
+++ b/Laporan/2024/Laporan NG Incoming Line.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -538,6 +538,111 @@
         </r>
       </text>
     </comment>
+    <comment ref="H21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+berotot : 43
+Kabel Noda : 6
+berbintik : 12
+material nempel : 15
+luka : 1
+OD besar : 1
+sambungan : 1
+core kuning luka : 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Print hilang : 5
+Print double : 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+luka : 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+print hilang : 4
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -825,12 +930,119 @@
         </r>
       </text>
     </comment>
+    <comment ref="H18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Berotot : 40
+sample operator : 4
+core gepeng : 1
+kasar : 7
+bergaris : 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+berotot : 17
+noda : 5
+core merah gelembung : 152</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+berotot : 9
+molding tidak penuh : 1
+core sambungan : 1
+kabel kasar : 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+berotot : 2
+pendek : 2
+tidak ada core merah : 1</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="25">
   <si>
     <t>Tanggal</t>
   </si>
@@ -903,12 +1115,15 @@
   <si>
     <t>W03-25040033-Y</t>
   </si>
+  <si>
+    <t>W03-25040034-Y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,6 +1162,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1552,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,6 +2099,89 @@
         <v>19</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1">
+        <v>79</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1881,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,6 +2496,92 @@
         <v>19</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1">
+        <v>54</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45369</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>174</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45369</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45371</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laporan/2024/Laporan NG Incoming Line.xlsx
+++ b/Laporan/2024/Laporan NG Incoming Line.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -1037,12 +1037,41 @@
         </r>
       </text>
     </comment>
+    <comment ref="H25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+berbintik : 2
+core sambungan : 1
+kabel pendek : 1
+kulit tidak penuh : 1
+berotot : 8
+OD besar : 6</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="25">
   <si>
     <t>Tanggal</t>
   </si>
@@ -1782,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -2192,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,6 +2611,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45376</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1">
+        <v>19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laporan/2024/Laporan NG Incoming Line.xlsx
+++ b/Laporan/2024/Laporan NG Incoming Line.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
     <sheet name="02" sheetId="4" r:id="rId2"/>
     <sheet name="03" sheetId="6" r:id="rId3"/>
+    <sheet name="04" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01'!$A$1:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02'!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'03'!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'04'!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -626,16 +628,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ADM-B1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 print hilang : 4
@@ -1019,16 +1021,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ADM-B1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 berotot : 2
@@ -1070,8 +1072,45 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ADM-B1</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADM-B1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+bergaris : 4
+berotot : 4
+kusam : 1
+noda : 1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="26">
   <si>
     <t>Tanggal</t>
   </si>
@@ -1147,12 +1186,15 @@
   <si>
     <t>W03-25040034-Y</t>
   </si>
+  <si>
+    <t>A09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,19 +1233,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2223,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,4 +2669,81 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45385</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>